--- a/data-raw/regionInformation/regionInfoLookup.xlsx
+++ b/data-raw/regionInformation/regionInfoLookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/ISIMIPData/data-raw/regionInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A25EC-0637-B341-826D-68C5DB89F72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B4141B-CDCB-BF49-85EC-C74FF175E339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="7120" windowWidth="23160" windowHeight="18780" xr2:uid="{8380C6DB-3AEC-D245-9B16-7F5FCB5A3080}"/>
+    <workbookView xWindow="32340" yWindow="9000" windowWidth="23160" windowHeight="18780" xr2:uid="{8380C6DB-3AEC-D245-9B16-7F5FCB5A3080}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>country</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>bbrange</t>
-  </si>
-  <si>
-    <t>Western Colorado</t>
   </si>
 </sst>
 </file>
@@ -526,7 +523,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>

--- a/data-raw/regionInformation/regionInfoLookup.xlsx
+++ b/data-raw/regionInformation/regionInfoLookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/ISIMIPData/data-raw/regionInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B4141B-CDCB-BF49-85EC-C74FF175E339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4BE579-0FFD-ED40-9027-4D006D8FB56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32340" yWindow="9000" windowWidth="23160" windowHeight="18780" xr2:uid="{8380C6DB-3AEC-D245-9B16-7F5FCB5A3080}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>country</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>bbrange</t>
+  </si>
+  <si>
+    <t>Western Colorado</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
